--- a/SourceData(up to date)/Dong_SourceData_Fig5.xlsx
+++ b/SourceData(up to date)/Dong_SourceData_Fig5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Drive/Temporary/sLight paper update/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunyangdong/JD Dropbox/Chunyang Dong/sLight manuscript/Version 8-resubmission/SourceData(up to date)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25317511-C77F-DE46-A354-87381DB4E3EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B02A1-ACCC-5941-8B5B-14C9D383C759}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{BD80D08D-42CD-7240-9F0D-FCD4EDCB60A9}"/>
+    <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{BD80D08D-42CD-7240-9F0D-FCD4EDCB60A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Panel B" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,6 +143,10 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,16 +169,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBA983E-CA36-D44C-ADB0-54D176836F00}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,433 +886,433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
       <c r="Q1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1E-10</v>
       </c>
-      <c r="B2" s="1">
-        <v>-5.1841135999999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-4.3871633000000001</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-5.5415457000000004</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-5.1841135999999999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-4.3871633000000001</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-5.5415457000000004</v>
-      </c>
-      <c r="H2" s="1">
-        <v>-5.1841135999999999</v>
-      </c>
-      <c r="I2" s="1">
-        <v>-4.3871633000000001</v>
-      </c>
-      <c r="J2" s="1">
-        <v>-5.5415457000000004</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-5.1841135999999999</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-4.3871633000000001</v>
-      </c>
-      <c r="M2" s="1">
-        <v>-5.5415457000000004</v>
-      </c>
-      <c r="N2" s="1">
-        <v>-5.1841135999999999</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-4.3871633000000001</v>
-      </c>
-      <c r="P2" s="1">
-        <v>-5.5415457000000004</v>
+      <c r="B2" s="5">
+        <v>-1.1841136000000001</v>
+      </c>
+      <c r="C2" s="5">
+        <v>-0.38716329999999999</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-1.5415456999999999</v>
+      </c>
+      <c r="E2" s="5">
+        <v>-1.1841136000000001</v>
+      </c>
+      <c r="F2" s="5">
+        <v>-0.38716329999999999</v>
+      </c>
+      <c r="G2" s="5">
+        <v>-1.5415456999999999</v>
+      </c>
+      <c r="H2" s="5">
+        <v>-1.1841136000000001</v>
+      </c>
+      <c r="I2" s="5">
+        <v>-0.38716329999999999</v>
+      </c>
+      <c r="J2" s="5">
+        <v>-1.5415456999999999</v>
+      </c>
+      <c r="K2" s="5">
+        <v>-1.1841136000000001</v>
+      </c>
+      <c r="L2" s="5">
+        <v>-0.38716329999999999</v>
+      </c>
+      <c r="M2" s="5">
+        <v>-1.5415456999999999</v>
+      </c>
+      <c r="N2" s="5">
+        <v>-1.1841136000000001</v>
+      </c>
+      <c r="O2" s="5">
+        <v>-0.38716329999999999</v>
+      </c>
+      <c r="P2" s="5">
+        <v>-1.5415456999999999</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="B3" s="1">
-        <v>6.3802057599999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-1.7296423999999999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.9320133399999999</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3.2536781499999998</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-1.1718919999999999</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-0.98184539999999998</v>
-      </c>
-      <c r="H3" s="1">
-        <v>6.0394236599999997</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.59197379999999999</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-0.33289340000000001</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5.4180216100000003</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1.41254883</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2.3694809700000001</v>
-      </c>
-      <c r="N3" s="1">
-        <v>-0.5680501</v>
-      </c>
-      <c r="O3" s="1">
-        <v>-7.9569631000000003</v>
-      </c>
-      <c r="P3" s="1">
-        <v>-12.12665015</v>
+      <c r="B3" s="5">
+        <v>10.380205800000001</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.2703576000000001</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5.9320133400000001</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7.2536781499999998</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.8281079999999998</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3.0181545999999999</v>
+      </c>
+      <c r="H3" s="5">
+        <v>10.0394237</v>
+      </c>
+      <c r="I3" s="5">
+        <v>4.5919737999999999</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3.6671065999999999</v>
+      </c>
+      <c r="K3" s="5">
+        <v>9.4180216100000003</v>
+      </c>
+      <c r="L3" s="5">
+        <v>5.4125488300000004</v>
+      </c>
+      <c r="M3" s="5">
+        <v>6.3694809699999997</v>
+      </c>
+      <c r="N3" s="5">
+        <v>3.4319499000000002</v>
+      </c>
+      <c r="O3" s="5">
+        <v>-3.9569630999999998</v>
+      </c>
+      <c r="P3" s="5">
+        <v>-8.1266502000000003</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="1">
-        <v>16.874374700000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>15.1909542</v>
-      </c>
-      <c r="D4" s="1">
-        <v>11.8605424</v>
-      </c>
-      <c r="E4" s="1">
-        <v>11.8716876</v>
-      </c>
-      <c r="F4" s="1">
-        <v>10.0713454</v>
-      </c>
-      <c r="G4" s="1">
-        <v>16.592304899999998</v>
-      </c>
-      <c r="H4" s="1">
-        <v>12.0044966</v>
-      </c>
-      <c r="I4" s="1">
-        <v>11.563571899999999</v>
-      </c>
-      <c r="J4" s="1">
-        <v>10.5257544</v>
-      </c>
-      <c r="K4" s="1">
-        <v>10.9883731</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1.2697499299999999</v>
-      </c>
-      <c r="M4" s="1">
-        <v>9.6862326900000006</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1.1153759400000001</v>
-      </c>
-      <c r="O4" s="1">
-        <v>-0.3700446</v>
-      </c>
-      <c r="P4" s="1">
-        <v>-1.8438049999999999</v>
+      <c r="B4" s="5">
+        <v>20.874374700000001</v>
+      </c>
+      <c r="C4" s="5">
+        <v>19.1909542</v>
+      </c>
+      <c r="D4" s="5">
+        <v>15.8605424</v>
+      </c>
+      <c r="E4" s="5">
+        <v>15.8716876</v>
+      </c>
+      <c r="F4" s="5">
+        <v>14.0713454</v>
+      </c>
+      <c r="G4" s="5">
+        <v>20.592304899999998</v>
+      </c>
+      <c r="H4" s="5">
+        <v>16.0044966</v>
+      </c>
+      <c r="I4" s="5">
+        <v>15.563571899999999</v>
+      </c>
+      <c r="J4" s="5">
+        <v>14.5257544</v>
+      </c>
+      <c r="K4" s="5">
+        <v>14.9883731</v>
+      </c>
+      <c r="L4" s="5">
+        <v>5.2697499299999997</v>
+      </c>
+      <c r="M4" s="5">
+        <v>13.6862327</v>
+      </c>
+      <c r="N4" s="5">
+        <v>5.1153759399999998</v>
+      </c>
+      <c r="O4" s="5">
+        <v>3.6299554000000001</v>
+      </c>
+      <c r="P4" s="5">
+        <v>2.1561949999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B5" s="1">
-        <v>32.921457400000001</v>
-      </c>
-      <c r="C5" s="1">
-        <v>33.776357400000002</v>
-      </c>
-      <c r="D5" s="1">
-        <v>36.034382899999997</v>
-      </c>
-      <c r="E5" s="1">
-        <v>28.121051900000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>26.099245400000001</v>
-      </c>
-      <c r="G5" s="1">
-        <v>33.224981399999997</v>
-      </c>
-      <c r="H5" s="1">
-        <v>34.224913800000003</v>
-      </c>
-      <c r="I5" s="1">
-        <v>31.288163999999998</v>
-      </c>
-      <c r="J5" s="1">
-        <v>31.220982500000002</v>
-      </c>
-      <c r="K5" s="1">
-        <v>27.826627599999998</v>
-      </c>
-      <c r="L5" s="1">
-        <v>29.357319499999999</v>
-      </c>
-      <c r="M5" s="1">
-        <v>28.842141099999999</v>
-      </c>
-      <c r="N5" s="1">
-        <v>20.199229500000001</v>
-      </c>
-      <c r="O5" s="1">
-        <v>22.306844099999999</v>
-      </c>
-      <c r="P5" s="1">
-        <v>18.527134100000001</v>
+      <c r="B5" s="5">
+        <v>36.921457400000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>37.776357400000002</v>
+      </c>
+      <c r="D5" s="5">
+        <v>40.034382899999997</v>
+      </c>
+      <c r="E5" s="5">
+        <v>32.121051899999998</v>
+      </c>
+      <c r="F5" s="5">
+        <v>30.099245400000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>37.224981399999997</v>
+      </c>
+      <c r="H5" s="5">
+        <v>38.224913800000003</v>
+      </c>
+      <c r="I5" s="5">
+        <v>35.288164000000002</v>
+      </c>
+      <c r="J5" s="5">
+        <v>35.220982499999998</v>
+      </c>
+      <c r="K5" s="5">
+        <v>31.826627599999998</v>
+      </c>
+      <c r="L5" s="5">
+        <v>33.357319500000003</v>
+      </c>
+      <c r="M5" s="5">
+        <v>32.842141099999999</v>
+      </c>
+      <c r="N5" s="5">
+        <v>24.199229500000001</v>
+      </c>
+      <c r="O5" s="5">
+        <v>26.306844099999999</v>
+      </c>
+      <c r="P5" s="5">
+        <v>22.527134100000001</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B6" s="1">
-        <v>34.620961299999998</v>
-      </c>
-      <c r="C6" s="1">
-        <v>31.461870900000001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>29.8066569</v>
-      </c>
-      <c r="E6" s="1">
-        <v>36.121447699999997</v>
-      </c>
-      <c r="F6" s="1">
-        <v>33.094870299999997</v>
-      </c>
-      <c r="G6" s="1">
-        <v>34.626593499999998</v>
-      </c>
-      <c r="H6" s="1">
-        <v>34.765662800000001</v>
-      </c>
-      <c r="I6" s="1">
-        <v>34.504574499999997</v>
-      </c>
-      <c r="J6" s="1">
-        <v>35.392713100000002</v>
-      </c>
-      <c r="K6" s="1">
-        <v>33.442915599999999</v>
-      </c>
-      <c r="L6" s="1">
-        <v>35.268850999999998</v>
-      </c>
-      <c r="M6" s="1">
-        <v>35.296759999999999</v>
-      </c>
-      <c r="N6" s="1">
-        <v>29.5219095</v>
-      </c>
-      <c r="O6" s="1">
-        <v>32.5849628</v>
-      </c>
-      <c r="P6" s="1">
-        <v>29.298513499999999</v>
+      <c r="B6" s="5">
+        <v>38.620961299999998</v>
+      </c>
+      <c r="C6" s="5">
+        <v>35.461870900000001</v>
+      </c>
+      <c r="D6" s="5">
+        <v>33.8066569</v>
+      </c>
+      <c r="E6" s="5">
+        <v>40.121447699999997</v>
+      </c>
+      <c r="F6" s="5">
+        <v>37.094870299999997</v>
+      </c>
+      <c r="G6" s="5">
+        <v>38.626593499999998</v>
+      </c>
+      <c r="H6" s="5">
+        <v>38.765662800000001</v>
+      </c>
+      <c r="I6" s="5">
+        <v>38.504574499999997</v>
+      </c>
+      <c r="J6" s="5">
+        <v>39.392713100000002</v>
+      </c>
+      <c r="K6" s="5">
+        <v>37.442915599999999</v>
+      </c>
+      <c r="L6" s="5">
+        <v>39.268850999999998</v>
+      </c>
+      <c r="M6" s="5">
+        <v>39.296759999999999</v>
+      </c>
+      <c r="N6" s="5">
+        <v>33.5219095</v>
+      </c>
+      <c r="O6" s="5">
+        <v>36.5849628</v>
+      </c>
+      <c r="P6" s="5">
+        <v>33.298513499999999</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B7" s="1">
-        <v>22.2087343</v>
-      </c>
-      <c r="C7" s="1">
-        <v>28.997916799999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>30.253586200000001</v>
-      </c>
-      <c r="E7" s="1">
-        <v>32.658310999999998</v>
-      </c>
-      <c r="F7" s="1">
-        <v>34.150303600000001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>35.370777500000003</v>
-      </c>
-      <c r="H7" s="1">
-        <v>29.893882999999999</v>
-      </c>
-      <c r="I7" s="1">
-        <v>30.721399399999999</v>
-      </c>
-      <c r="J7" s="1">
-        <v>20.412241900000001</v>
-      </c>
-      <c r="K7" s="1">
-        <v>32.545948299999999</v>
-      </c>
-      <c r="L7" s="1">
-        <v>32.4668007</v>
-      </c>
-      <c r="M7" s="1">
-        <v>33.470220400000002</v>
-      </c>
-      <c r="N7" s="1">
-        <v>27.919382599999999</v>
-      </c>
-      <c r="O7" s="1">
-        <v>32.591160100000003</v>
-      </c>
-      <c r="P7" s="1">
-        <v>35.141531000000001</v>
+      <c r="B7" s="5">
+        <v>26.2087343</v>
+      </c>
+      <c r="C7" s="5">
+        <v>32.997916799999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>34.253586200000001</v>
+      </c>
+      <c r="E7" s="5">
+        <v>36.658310999999998</v>
+      </c>
+      <c r="F7" s="5">
+        <v>38.150303600000001</v>
+      </c>
+      <c r="G7" s="5">
+        <v>39.370777500000003</v>
+      </c>
+      <c r="H7" s="5">
+        <v>33.893883000000002</v>
+      </c>
+      <c r="I7" s="5">
+        <v>34.721399400000003</v>
+      </c>
+      <c r="J7" s="5">
+        <v>24.412241900000001</v>
+      </c>
+      <c r="K7" s="5">
+        <v>36.545948299999999</v>
+      </c>
+      <c r="L7" s="5">
+        <v>36.4668007</v>
+      </c>
+      <c r="M7" s="5">
+        <v>37.470220400000002</v>
+      </c>
+      <c r="N7" s="5">
+        <v>31.919382599999999</v>
+      </c>
+      <c r="O7" s="5">
+        <v>36.591160100000003</v>
+      </c>
+      <c r="P7" s="5">
+        <v>39.141531000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>1E-4</v>
       </c>
-      <c r="B8" s="1">
-        <v>25.4635918</v>
-      </c>
-      <c r="C8" s="1">
-        <v>26.2981576</v>
-      </c>
-      <c r="D8" s="1">
-        <v>29.545942799999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>30.261813</v>
-      </c>
-      <c r="F8" s="1">
-        <v>34.049066500000002</v>
-      </c>
-      <c r="G8" s="1">
-        <v>34.530054700000001</v>
-      </c>
-      <c r="H8" s="1">
-        <v>30.860284499999999</v>
-      </c>
-      <c r="I8" s="1">
-        <v>30.084236499999999</v>
-      </c>
-      <c r="J8" s="1">
-        <v>30.486576400000001</v>
-      </c>
-      <c r="K8" s="1">
-        <v>32.662476400000003</v>
-      </c>
-      <c r="L8" s="1">
-        <v>33.428781299999997</v>
-      </c>
-      <c r="M8" s="1">
-        <v>29.473543599999999</v>
-      </c>
-      <c r="N8" s="1">
-        <v>27.2419449</v>
-      </c>
-      <c r="O8" s="1">
-        <v>30.541511700000001</v>
-      </c>
-      <c r="P8" s="1">
-        <v>28.0626967</v>
+      <c r="B8" s="5">
+        <v>29.4635918</v>
+      </c>
+      <c r="C8" s="5">
+        <v>30.2981576</v>
+      </c>
+      <c r="D8" s="5">
+        <v>33.545942799999999</v>
+      </c>
+      <c r="E8" s="5">
+        <v>34.261812999999997</v>
+      </c>
+      <c r="F8" s="5">
+        <v>38.049066500000002</v>
+      </c>
+      <c r="G8" s="5">
+        <v>38.530054700000001</v>
+      </c>
+      <c r="H8" s="5">
+        <v>34.860284499999999</v>
+      </c>
+      <c r="I8" s="5">
+        <v>34.084236500000003</v>
+      </c>
+      <c r="J8" s="5">
+        <v>34.486576399999997</v>
+      </c>
+      <c r="K8" s="5">
+        <v>36.662476400000003</v>
+      </c>
+      <c r="L8" s="5">
+        <v>37.428781299999997</v>
+      </c>
+      <c r="M8" s="5">
+        <v>33.473543599999999</v>
+      </c>
+      <c r="N8" s="5">
+        <v>31.2419449</v>
+      </c>
+      <c r="O8" s="5">
+        <v>34.541511700000001</v>
+      </c>
+      <c r="P8" s="5">
+        <v>32.062696699999996</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>1E-3</v>
       </c>
-      <c r="B9" s="1">
-        <v>29.637795000000001</v>
-      </c>
-      <c r="C9" s="1">
-        <v>31.768356000000001</v>
-      </c>
-      <c r="D9" s="1">
-        <v>28.908129599999999</v>
-      </c>
-      <c r="E9" s="1">
-        <v>33.071348899999997</v>
-      </c>
-      <c r="F9" s="1">
-        <v>32.9497809</v>
-      </c>
-      <c r="G9" s="1">
-        <v>31.157422199999999</v>
-      </c>
-      <c r="H9" s="1">
-        <v>32.199352400000002</v>
-      </c>
-      <c r="I9" s="1">
-        <v>31.155994</v>
-      </c>
-      <c r="J9" s="1">
-        <v>32.528857799999997</v>
-      </c>
-      <c r="K9" s="1">
-        <v>31.924084100000002</v>
-      </c>
-      <c r="L9" s="1">
-        <v>28.951766299999999</v>
-      </c>
-      <c r="M9" s="1">
-        <v>32.028373600000002</v>
-      </c>
-      <c r="N9" s="1">
-        <v>34.667762199999999</v>
-      </c>
-      <c r="O9" s="1">
-        <v>30.1626753</v>
-      </c>
-      <c r="P9" s="1">
-        <v>33.8169994</v>
+      <c r="B9" s="5">
+        <v>33.637794999999997</v>
+      </c>
+      <c r="C9" s="5">
+        <v>35.768355999999997</v>
+      </c>
+      <c r="D9" s="5">
+        <v>32.908129600000002</v>
+      </c>
+      <c r="E9" s="5">
+        <v>37.071348899999997</v>
+      </c>
+      <c r="F9" s="5">
+        <v>36.9497809</v>
+      </c>
+      <c r="G9" s="5">
+        <v>35.157422199999999</v>
+      </c>
+      <c r="H9" s="5">
+        <v>36.199352400000002</v>
+      </c>
+      <c r="I9" s="5">
+        <v>35.155994</v>
+      </c>
+      <c r="J9" s="5">
+        <v>36.528857799999997</v>
+      </c>
+      <c r="K9" s="5">
+        <v>35.924084100000002</v>
+      </c>
+      <c r="L9" s="5">
+        <v>32.951766300000003</v>
+      </c>
+      <c r="M9" s="5">
+        <v>36.028373600000002</v>
+      </c>
+      <c r="N9" s="5">
+        <v>38.667762199999999</v>
+      </c>
+      <c r="O9" s="5">
+        <v>34.162675299999997</v>
+      </c>
+      <c r="P9" s="5">
+        <v>37.8169994</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -1513,7 +1518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C46A3A-1228-7544-BBC3-935EBAD1A4CF}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
